--- a/02 Scheduler/200407_hexapod_WBS.xlsx
+++ b/02 Scheduler/200407_hexapod_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Hexapod\02 Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685DA112-8A78-4E00-8428-5F7090135ECB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48429FC-6E32-4598-91EA-68AEE52F3C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -802,10 +802,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,7 +814,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1655,7 +1655,7 @@
   <dimension ref="A1:DU40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="AH36" sqref="AH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1669,15 +1669,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
@@ -2331,10 +2331,10 @@
       <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="6">
         <f>MIN(D5:D6)</f>
         <v>43927</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="7" spans="1:125" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="6">
         <f>MIN(D8:D9)</f>
         <v>43929</v>
@@ -3157,10 +3157,10 @@
       <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="34"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="6">
         <f>MIN(D11:D13)</f>
         <v>43927</v>
@@ -3709,10 +3709,10 @@
       <c r="A14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="6">
         <f>MIN(D15:D18)</f>
         <v>43929</v>
@@ -4396,10 +4396,10 @@
     </row>
     <row r="19" spans="1:125" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="34"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="6">
         <f>MIN(D20:D24)</f>
         <v>43929</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="23" spans="1:125" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22"/>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -5081,7 +5081,7 @@
     </row>
     <row r="24" spans="1:125" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -5222,10 +5222,10 @@
       <c r="A25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="34"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="6">
         <f>MIN(D26)</f>
         <v>43936</v>
@@ -5770,10 +5770,10 @@
     </row>
     <row r="29" spans="1:125" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="34"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="6">
         <f>MIN(D30:D30)</f>
         <v>43929</v>
@@ -6047,14 +6047,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="CO3 CV3 DC3 I3:CH3 CI3:CN30 CP3:CU30 CW3:DB30 DD3:DU30 I4:CG30">

--- a/02 Scheduler/200407_hexapod_WBS.xlsx
+++ b/02 Scheduler/200407_hexapod_WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Hexapod\02 Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48429FC-6E32-4598-91EA-68AEE52F3C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E090303C-EBC2-4F3B-83F9-0B5CB7CC5135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EndPoint 경로 및 모션 설계(순 기구학 필요)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hexapod 역기구학 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,6 +294,10 @@
   </si>
   <si>
     <t>각 엑추에이터 경로 및 움직임 확인(가상 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndPoint 경로 및 모션 설계(가상 포함)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,6 +805,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,12 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1654,8 +1654,8 @@
   </sheetPr>
   <dimension ref="A1:DU40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH36" sqref="AH36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1669,15 +1669,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:125" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
@@ -2331,10 +2331,10 @@
       <c r="A4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="38"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="6">
         <f>MIN(D5:D6)</f>
         <v>43927</v>
@@ -2472,7 +2472,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="7">
         <v>43927</v>
@@ -2611,7 +2611,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7">
         <v>43929</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="7" spans="1:125" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="6">
         <f>MIN(D8:D9)</f>
         <v>43929</v>
@@ -3157,10 +3157,10 @@
       <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="6">
         <f>MIN(D11:D13)</f>
         <v>43927</v>
@@ -3709,10 +3709,10 @@
       <c r="A14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="6">
         <f>MIN(D15:D18)</f>
         <v>43929</v>
@@ -3987,7 +3987,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
         <v>43929</v>
@@ -4124,7 +4124,7 @@
         <v>26</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="7">
         <v>43930</v>
@@ -4261,20 +4261,20 @@
         <v>54</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7">
         <v>43930</v>
       </c>
       <c r="E18" s="7">
-        <v>43934</v>
+        <v>43936</v>
       </c>
       <c r="F18" s="3">
         <f>NETWORKDAYS(D18,E18)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -4396,10 +4396,10 @@
     </row>
     <row r="19" spans="1:125" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="38"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="6">
         <f>MIN(D20:D24)</f>
         <v>43929</v>
@@ -4811,7 +4811,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7">
         <v>43930</v>
@@ -4948,7 +4948,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="7">
         <v>43929</v>
@@ -5222,10 +5222,10 @@
       <c r="A25" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="35"/>
       <c r="D25" s="6">
         <f>MIN(D26)</f>
         <v>43936</v>
@@ -5497,10 +5497,10 @@
     <row r="27" spans="1:125" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
       <c r="B27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>58</v>
       </c>
       <c r="D27" s="7">
         <v>43936</v>
@@ -5634,10 +5634,10 @@
     <row r="28" spans="1:125" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22"/>
       <c r="B28" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="7">
         <v>43936</v>
@@ -5770,10 +5770,10 @@
     </row>
     <row r="29" spans="1:125" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22"/>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="38"/>
+      <c r="C29" s="35"/>
       <c r="D29" s="6">
         <f>MIN(D30:D30)</f>
         <v>43929</v>

--- a/02 Scheduler/200407_hexapod_WBS.xlsx
+++ b/02 Scheduler/200407_hexapod_WBS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Hexapod\02 Scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E090303C-EBC2-4F3B-83F9-0B5CB7CC5135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4465B9FC-5A50-49F0-8414-2E9C410B56F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19665" yWindow="5475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wbs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">wbs!$A$1:$AC$30</definedName>
@@ -1654,8 +1655,8 @@
   </sheetPr>
   <dimension ref="A1:DU40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6310,4 +6311,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8913F3BD-17AF-4F0C-94AF-37A1DB903063}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>